--- a/covidnew_jp.xlsx
+++ b/covidnew_jp.xlsx
@@ -3647,7 +3647,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C234">
         <v>0</v>

--- a/covidnew_jp.xlsx
+++ b/covidnew_jp.xlsx
@@ -3647,10 +3647,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/covidnew_jp.xlsx
+++ b/covidnew_jp.xlsx
@@ -3647,10 +3647,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covidnew_jp.xlsx
+++ b/covidnew_jp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="237">
   <si>
     <t>Confirmed</t>
   </si>
@@ -716,6 +716,15 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3647,10 +3656,43 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>531</v>
+      </c>
+      <c r="C235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>552</v>
+      </c>
+      <c r="C236">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
